--- a/src/data/storage/work/条目表/条目表.xlsx
+++ b/src/data/storage/work/条目表/条目表.xlsx
@@ -492,14 +492,14 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1866.15</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>

--- a/src/data/storage/work/条目表/条目表.xlsx
+++ b/src/data/storage/work/条目表/条目表.xlsx
@@ -1,35 +1,375 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="鸡蛋" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="圆葱20" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="尖椒" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="大葱" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="生姜" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="20">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -37,17 +377,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -120,9 +754,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="WPS">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -130,39 +764,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4874CB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="EE822F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="F2BA02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="75BD42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="30C0B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="WPS">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,214 +866,407 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="WPS">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumOff val="17500"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:hueOff val="-2520000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="phClr">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="phClr"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="2700000" scaled="1"/>
+          </a:gradFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="phClr">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>存量</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>存值</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>斤</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>10. 56</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>存量</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>存值</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>斤</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>10. 6</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>存量</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>存值</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>斤</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -486,20 +1313,18 @@
           <t>斤</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
+      <c r="B2" t="n">
+        <v>6.76</v>
       </c>
       <c r="C2" t="n">
-        <v>495</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1866.15</v>
+        <v>20.28</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-18</t>
         </is>
       </c>
     </row>

--- a/src/data/storage/work/条目表/条目表.xlsx
+++ b/src/data/storage/work/条目表/条目表.xlsx
@@ -1,184 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="鸡蛋" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -478,156 +474,156 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,11 +679,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -939,52 +998,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>存量</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>存值</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>斤</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/data/storage/work/条目表/条目表.xlsx
+++ b/src/data/storage/work/条目表/条目表.xlsx
@@ -1069,54 +1069,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>单价</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>存量</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>存值</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>斤</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C2" s="0" t="n">
+        <v>99</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>124.41</t>
-        </is>
+      <c r="D2" s="0" t="n">
+        <v>373.23</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>2025-05-26</t>
         </is>

--- a/src/data/storage/work/条目表/条目表.xlsx
+++ b/src/data/storage/work/条目表/条目表.xlsx
@@ -9,7 +9,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="鸡蛋" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="里脊" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="五花肉" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="肘子" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="排骨" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="脊骨" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1103,18 +1107,302 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="C2" s="0" t="n">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>373.23</v>
+        <v>210.2</v>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>存量</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>存值</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>斤</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>113.10</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>存量</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>存值</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>斤</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>175.80</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>存量</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>存值</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>斤</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>377.60</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>存量</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>存值</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>斤</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
         </is>
       </c>
     </row>
